--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1548CF-838E-46FB-A79B-F1C0F1A0B3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D413573-99FC-42AE-AD3C-594C8B91CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -411,11 +411,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未產出前:空白
-產出後:"Y"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AuthErrorCode</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -520,26 +515,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AuthCode
-1期款2火險</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:PostDepCode
-P：存簿G：劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:StampCode
-1局帳號不符
-2戶名不符
-3身分證號不符
-4印鑑不符
-9其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthErrorCode
+    <t>auto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC,AuthCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC,AuthCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出日期(媒體產出日)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostAuthLogHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局授權記錄歷史檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND AuthCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>facmNoAuthCodeEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthCode
+1:期款
+2:火險</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthApplCode
+1:申請
+2:終止
+3:郵局終止
+4:誤終止
+8:恢復授權
+9:暫停授權</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PostDepCode
+P:存簿
+G:劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.StampCode
+1:局帳號不符
+2:戶名不符
+3:身分證號不符
+4:印鑑不符
+9:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未產出前
+Y:產出後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthErrorCode
 空白:未授權
 00:成功
 03:已終止代繳
@@ -561,117 +649,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:Sex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RelationCode
-00本人
-01夫
-02妻
-03父
-04母
-05子
-06女
-07兄
-08弟
-09姊
-10妹
-11姪子
-99其他</t>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo DESC,AuthCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo DESC,AuthCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日曆日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日曆日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出日期(媒體產出日)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>日曆日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日曆日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期/暫停授權日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostAuthLogHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郵局授權記錄歷史檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthApplCode
-1.申請
-2.終止
-3.郵局終止
-4.誤終止
-8.恢復授權
-9.暫停授權</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo DESC,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND AuthCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>facmNoAuthCodeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1343,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1364,10 +1367,10 @@
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1377,7 +1380,7 @@
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1392,7 +1395,7 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1492,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -1512,7 +1515,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>38</v>
@@ -1527,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>71</v>
@@ -1540,7 +1543,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="32.4">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="29">
         <v>4</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>19</v>
@@ -1557,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1568,7 +1571,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>55</v>
@@ -1577,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="113.4">
@@ -1597,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48.6">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1628,7 +1631,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>19</v>
@@ -1646,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>19</v>
@@ -1691,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1738,7 +1741,7 @@
         <v>94</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>19</v>
@@ -1747,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4">
@@ -1758,7 +1761,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>19</v>
@@ -1767,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="307.8">
@@ -1775,10 +1778,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>19</v>
@@ -1787,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1818,7 +1821,7 @@
         <v>96</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>55</v>
@@ -1827,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1847,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1858,7 +1861,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>55</v>
@@ -1867,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="226.8">
@@ -1887,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1913,10 +1916,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>19</v>
@@ -1961,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="64.8">
@@ -1981,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2010,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>53</v>
@@ -2044,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>53</v>
@@ -2073,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
@@ -2115,10 +2118,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2137,7 +2140,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2148,7 +2151,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2226,73 +2229,73 @@
         <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
